--- a/output/Media_analise/reactions/@outrossaida.xlsx
+++ b/output/Media_analise/reactions/@outrossaida.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\Não anotado\@Saídas\Media_analise\reactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD8A34-9CC6-429C-8666-E6A5131E2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9B849-878D-4494-AB75-9CF3E6602834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="2580" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1865,7 +1868,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,48 +1898,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.118964</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>28.363099999999999</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.5874797272727283</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.4036400000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>-315.92</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>18.027699999999999</v>
+        <v>5.0610799999999996</v>
       </c>
       <c r="F3">
-        <v>-83.165031818181831</v>
+        <v>0.4600981818181818</v>
       </c>
       <c r="G3">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1964,22 +1955,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.59853</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.18498527272727275</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1987,94 +1978,94 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>-358.68599999999998</v>
+        <v>-8.2902199999999995E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>72.891800000000003</v>
       </c>
       <c r="F6">
-        <v>-56.931041818181825</v>
+        <v>22.990425199999997</v>
       </c>
       <c r="G6">
-        <v>-55.689300000000003</v>
+        <v>32.0413</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-358.68599999999998</v>
       </c>
       <c r="E7">
-        <v>37.259099999999997</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3.3871909090909087</v>
+        <v>-56.931041818181825</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-55.689300000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>-8.2902199999999995E-2</v>
+        <v>-315.92</v>
       </c>
       <c r="E8">
-        <v>72.891800000000003</v>
+        <v>18.027699999999999</v>
       </c>
       <c r="F8">
-        <v>22.990425199999997</v>
+        <v>-83.165031818181831</v>
       </c>
       <c r="G8">
-        <v>32.0413</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-410.017</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-50.998233181818179</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-17.340199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2102,62 +2093,79 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>-410.017</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.59853</v>
       </c>
       <c r="F11">
-        <v>-50.998233181818179</v>
+        <v>0.18498527272727275</v>
       </c>
       <c r="G11">
-        <v>-17.340199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>0.118964</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>28.363099999999999</v>
+        <v>37.259099999999997</v>
       </c>
       <c r="F12">
-        <v>4.5874797272727283</v>
+        <v>3.3871909090909087</v>
       </c>
       <c r="G12">
-        <v>4.4036400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.0610799999999996</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4600981818181818</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{CDBE0511-D3AE-410D-9A97-889C6A143947}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>